--- a/medicine/Psychotrope/Pierre_Celis/Pierre_Celis.xlsx
+++ b/medicine/Psychotrope/Pierre_Celis/Pierre_Celis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Celis ( Hoegaarden, 21 mars 1925 - Tienen, 9 avril 2011) est un brasseur de bière flamand.
 </t>
@@ -511,14 +523,16 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1966, il fonde la brasserie De Kluis dans son village natal et produit, entre autres, la bière blanche de Hoegaarden.
 Celis est laitier de profession mais a appris le métier de brasseur auprès de son voisin Tomsin, le dernier brasseur artisanal de Hoegaarden. En 1965, quelques années après la fermeture de Tomsin, Celis commence un test de brassage dans son grenier à foin. En 1966, il fonde la brasserie De Kluis. La production augmente d'année en année, en partie grâce au soutien du bourgmestre du village, Frans Huon.
 Dans les années 1980, Celis investit dans le rachat de Hougardia, une ancienne usine de limonade, et la transforme en brasserie. En 1985, cette succursale est détruite par un incendie. Cet accident entraîne le rachat de la brasserie par Interbrew, aujourd'hui InBev.
 Après le rachat par Interbrew, Pierre Celis s'installe temporairement aux États-Unis, où il ouvre une nouvelle brasserie, Celis Brewery, à Austin, Texas en 1991. Il y commercialise, entre autres, le Celis White, également distribué sur le marché belge. Après quelques années, pour des raisons de santé, il est également contraint de vendre cette brasserie à un grand groupe, Miller. Le chiffre d'affaires, jusque-là en hausse, s'effondre immédiatement et finalement Miller ferme la brasserie. Celis rentre ensuite en Belgique et fait brasser de la Grottenbier dans une autre brasserie, une bière qui mûrit dans les grottes de Kanne.
 Le 17 décembre 2005, il est promu citoyen d'honneur de Hoegaarden. En mars 2006, il annonce qu'il retourne au Texas pour agrandir davantage la brasserie d'un ami, Real Ale Brewing Company, dans la ville de Blanco, mais ses intentions ne se sont pas concrétisés. Pendant ce temps, ses problèmes de santé s'aggravent. Il est décédé à Tirlemont en 2011.
-En juin 2012, sa fille Christine Celis reprend le contrôle de la marque Celis et veut brasser à nouveau Celis White à Austin selon la recette originale[1].
+En juin 2012, sa fille Christine Celis reprend le contrôle de la marque Celis et veut brasser à nouveau Celis White à Austin selon la recette originale.
 </t>
         </is>
       </c>
